--- a/old_database/crypto/fastqFiles/fastq_894.xlsx
+++ b/old_database/crypto/fastqFiles/fastq_894.xlsx
@@ -37,7 +37,7 @@
     <t>04.17.13</t>
   </si>
   <si>
-    <t>Retrofitted</t>
+    <t>Retrofitted_894</t>
   </si>
   <si>
     <t>sequence/run_894_samples/run_894_s_3_withindex_sequence.txt_TGAGGTT.fq</t>
